--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H2">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I2">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J2">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.105838170621644</v>
+        <v>0.1438866666666667</v>
       </c>
       <c r="N2">
-        <v>0.105838170621644</v>
+        <v>0.43166</v>
       </c>
       <c r="O2">
-        <v>0.004458236745275686</v>
+        <v>0.005528090411415381</v>
       </c>
       <c r="P2">
-        <v>0.004458236745275686</v>
+        <v>0.005816871971504955</v>
       </c>
       <c r="Q2">
-        <v>0.03378031689386074</v>
+        <v>0.0844501542488889</v>
       </c>
       <c r="R2">
-        <v>0.03378031689386074</v>
+        <v>0.7600513882400001</v>
       </c>
       <c r="S2">
-        <v>4.622809462630217E-05</v>
+        <v>0.0001013895483372928</v>
       </c>
       <c r="T2">
-        <v>4.622809462630217E-05</v>
+        <v>0.0001423387321030954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H3">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I3">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J3">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3633245173465</v>
+        <v>21.99231</v>
       </c>
       <c r="N3">
-        <v>20.3633245173465</v>
+        <v>65.97693</v>
       </c>
       <c r="O3">
-        <v>0.8577672978093019</v>
+        <v>0.8449391514331273</v>
       </c>
       <c r="P3">
-        <v>0.8577672978093019</v>
+        <v>0.889077873518381</v>
       </c>
       <c r="Q3">
-        <v>6.49935227686009</v>
+        <v>12.90775590828</v>
       </c>
       <c r="R3">
-        <v>6.49935227686009</v>
+        <v>116.16980317452</v>
       </c>
       <c r="S3">
-        <v>0.008894311826866405</v>
+        <v>0.01549685199782509</v>
       </c>
       <c r="T3">
-        <v>0.008894311826866405</v>
+        <v>0.02175571645335373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H4">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I4">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J4">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.27075438435845</v>
+        <v>0.015519</v>
       </c>
       <c r="N4">
-        <v>3.27075438435845</v>
+        <v>0.046557</v>
       </c>
       <c r="O4">
-        <v>0.1377744654454222</v>
+        <v>0.0005962361703291152</v>
       </c>
       <c r="P4">
-        <v>0.1377744654454222</v>
+        <v>0.0006273829133516105</v>
       </c>
       <c r="Q4">
-        <v>1.043925069156648</v>
+        <v>0.009108432171999999</v>
       </c>
       <c r="R4">
-        <v>1.043925069156648</v>
+        <v>0.081975889548</v>
       </c>
       <c r="S4">
-        <v>0.001428603142811639</v>
+        <v>1.093544271403266E-05</v>
       </c>
       <c r="T4">
-        <v>0.001428603142811639</v>
+        <v>1.535204640347452E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.68705163946554</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H5">
-        <v>6.68705163946554</v>
+        <v>1.760764</v>
       </c>
       <c r="I5">
-        <v>0.2172481809495788</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J5">
-        <v>0.2172481809495788</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.105838170621644</v>
+        <v>3.876561</v>
       </c>
       <c r="N5">
-        <v>0.105838170621644</v>
+        <v>7.753121999999999</v>
       </c>
       <c r="O5">
-        <v>0.004458236745275686</v>
+        <v>0.1489365219851282</v>
       </c>
       <c r="P5">
-        <v>0.004458236745275686</v>
+        <v>0.1044778715967623</v>
       </c>
       <c r="Q5">
-        <v>0.707745312373498</v>
+        <v>2.275236350868</v>
       </c>
       <c r="R5">
-        <v>0.707745312373498</v>
+        <v>13.651418105208</v>
       </c>
       <c r="S5">
-        <v>0.0009685438231537133</v>
+        <v>0.00273161355389865</v>
       </c>
       <c r="T5">
-        <v>0.0009685438231537133</v>
+        <v>0.002556571272113734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H6">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I6">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J6">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3633245173465</v>
+        <v>0.1438866666666667</v>
       </c>
       <c r="N6">
-        <v>20.3633245173465</v>
+        <v>0.43166</v>
       </c>
       <c r="O6">
-        <v>0.8577672978093019</v>
+        <v>0.005528090411415381</v>
       </c>
       <c r="P6">
-        <v>0.8577672978093019</v>
+        <v>0.005816871971504955</v>
       </c>
       <c r="Q6">
-        <v>136.1706025986907</v>
+        <v>1.045904697893333</v>
       </c>
       <c r="R6">
-        <v>136.1706025986907</v>
+        <v>9.413142281040001</v>
       </c>
       <c r="S6">
-        <v>0.1863483851271064</v>
+        <v>0.001255696995066802</v>
       </c>
       <c r="T6">
-        <v>0.1863483851271064</v>
+        <v>0.001762847562836355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H7">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I7">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J7">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.27075438435845</v>
+        <v>21.99231</v>
       </c>
       <c r="N7">
-        <v>3.27075438435845</v>
+        <v>65.97693</v>
       </c>
       <c r="O7">
-        <v>0.1377744654454222</v>
+        <v>0.8449391514331273</v>
       </c>
       <c r="P7">
-        <v>0.1377744654454222</v>
+        <v>0.889077873518381</v>
       </c>
       <c r="Q7">
-        <v>21.87170346821328</v>
+        <v>159.86095778988</v>
       </c>
       <c r="R7">
-        <v>21.87170346821328</v>
+        <v>1438.74862010892</v>
       </c>
       <c r="S7">
-        <v>0.02993125199931858</v>
+        <v>0.1919265920973283</v>
       </c>
       <c r="T7">
-        <v>0.02993125199931858</v>
+        <v>0.2694418529720724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.7744814118673</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H8">
-        <v>23.7744814118673</v>
+        <v>21.806844</v>
       </c>
       <c r="I8">
-        <v>0.7723826759861169</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J8">
-        <v>0.7723826759861169</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.105838170621644</v>
+        <v>0.015519</v>
       </c>
       <c r="N8">
-        <v>0.105838170621644</v>
+        <v>0.046557</v>
       </c>
       <c r="O8">
-        <v>0.004458236745275686</v>
+        <v>0.0005962361703291152</v>
       </c>
       <c r="P8">
-        <v>0.004458236745275686</v>
+        <v>0.0006273829133516105</v>
       </c>
       <c r="Q8">
-        <v>2.516247620110315</v>
+        <v>0.112806804012</v>
       </c>
       <c r="R8">
-        <v>2.516247620110315</v>
+        <v>1.015261236108</v>
       </c>
       <c r="S8">
-        <v>0.00344346482749567</v>
+        <v>0.00013543410322783</v>
       </c>
       <c r="T8">
-        <v>0.00344346482749567</v>
+        <v>0.000190133192751175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.7744814118673</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H9">
-        <v>23.7744814118673</v>
+        <v>21.806844</v>
       </c>
       <c r="I9">
-        <v>0.7723826759861169</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J9">
-        <v>0.7723826759861169</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3633245173465</v>
+        <v>3.876561</v>
       </c>
       <c r="N9">
-        <v>20.3633245173465</v>
+        <v>7.753121999999999</v>
       </c>
       <c r="O9">
-        <v>0.8577672978093019</v>
+        <v>0.1489365219851282</v>
       </c>
       <c r="P9">
-        <v>0.8577672978093019</v>
+        <v>0.1044778715967623</v>
       </c>
       <c r="Q9">
-        <v>484.127480221476</v>
+        <v>28.17852032782799</v>
       </c>
       <c r="R9">
-        <v>484.127480221476</v>
+        <v>169.071121966968</v>
       </c>
       <c r="S9">
-        <v>0.662524600855329</v>
+        <v>0.03383069544706358</v>
       </c>
       <c r="T9">
-        <v>0.662524600855329</v>
+        <v>0.03166281847304111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.070339</v>
+      </c>
+      <c r="H10">
+        <v>0.211017</v>
+      </c>
+      <c r="I10">
+        <v>0.002198033693308568</v>
+      </c>
+      <c r="J10">
+        <v>0.002932580092490016</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1438866666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.43166</v>
+      </c>
+      <c r="O10">
+        <v>0.005528090411415381</v>
+      </c>
+      <c r="P10">
+        <v>0.005816871971504955</v>
+      </c>
+      <c r="Q10">
+        <v>0.01012084424666667</v>
+      </c>
+      <c r="R10">
+        <v>0.09108759822000001</v>
+      </c>
+      <c r="S10">
+        <v>1.215092898394703E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.705844294419858E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.070339</v>
+      </c>
+      <c r="H11">
+        <v>0.211017</v>
+      </c>
+      <c r="I11">
+        <v>0.002198033693308568</v>
+      </c>
+      <c r="J11">
+        <v>0.002932580092490016</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.99231</v>
+      </c>
+      <c r="N11">
+        <v>65.97693</v>
+      </c>
+      <c r="O11">
+        <v>0.8449391514331273</v>
+      </c>
+      <c r="P11">
+        <v>0.889077873518381</v>
+      </c>
+      <c r="Q11">
+        <v>1.54691709309</v>
+      </c>
+      <c r="R11">
+        <v>13.92225383781</v>
+      </c>
+      <c r="S11">
+        <v>0.001857204723645564</v>
+      </c>
+      <c r="T11">
+        <v>0.00260729207255336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.070339</v>
+      </c>
+      <c r="H12">
+        <v>0.211017</v>
+      </c>
+      <c r="I12">
+        <v>0.002198033693308568</v>
+      </c>
+      <c r="J12">
+        <v>0.002932580092490016</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.015519</v>
+      </c>
+      <c r="N12">
+        <v>0.046557</v>
+      </c>
+      <c r="O12">
+        <v>0.0005962361703291152</v>
+      </c>
+      <c r="P12">
+        <v>0.0006273829133516105</v>
+      </c>
+      <c r="Q12">
+        <v>0.001091590941</v>
+      </c>
+      <c r="R12">
+        <v>0.009824318469000001</v>
+      </c>
+      <c r="S12">
+        <v>1.310547191552661E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.839850642063321E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.070339</v>
+      </c>
+      <c r="H13">
+        <v>0.211017</v>
+      </c>
+      <c r="I13">
+        <v>0.002198033693308568</v>
+      </c>
+      <c r="J13">
+        <v>0.002932580092490016</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.876561</v>
+      </c>
+      <c r="N13">
+        <v>7.753121999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1489365219851282</v>
+      </c>
+      <c r="P13">
+        <v>0.1044778715967623</v>
+      </c>
+      <c r="Q13">
+        <v>0.272673424179</v>
+      </c>
+      <c r="R13">
+        <v>1.636040545074</v>
+      </c>
+      <c r="S13">
+        <v>0.000327367493487504</v>
+      </c>
+      <c r="T13">
+        <v>0.0003063897263503933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.028134</v>
+      </c>
+      <c r="H14">
+        <v>0.084402</v>
+      </c>
+      <c r="I14">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J14">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1438866666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.43166</v>
+      </c>
+      <c r="O14">
+        <v>0.005528090411415381</v>
+      </c>
+      <c r="P14">
+        <v>0.005816871971504955</v>
+      </c>
+      <c r="Q14">
+        <v>0.004048107480000001</v>
+      </c>
+      <c r="R14">
+        <v>0.03643296732</v>
+      </c>
+      <c r="S14">
+        <v>4.860095196610212E-06</v>
+      </c>
+      <c r="T14">
+        <v>6.822989149576806E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.028134</v>
+      </c>
+      <c r="H15">
+        <v>0.084402</v>
+      </c>
+      <c r="I15">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J15">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.99231</v>
+      </c>
+      <c r="N15">
+        <v>65.97693</v>
+      </c>
+      <c r="O15">
+        <v>0.8449391514331273</v>
+      </c>
+      <c r="P15">
+        <v>0.889077873518381</v>
+      </c>
+      <c r="Q15">
+        <v>0.61873164954</v>
+      </c>
+      <c r="R15">
+        <v>5.56858484586</v>
+      </c>
+      <c r="S15">
+        <v>0.0007428396436549324</v>
+      </c>
+      <c r="T15">
+        <v>0.001042857520994274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.028134</v>
+      </c>
+      <c r="H16">
+        <v>0.084402</v>
+      </c>
+      <c r="I16">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J16">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.015519</v>
+      </c>
+      <c r="N16">
+        <v>0.046557</v>
+      </c>
+      <c r="O16">
+        <v>0.0005962361703291152</v>
+      </c>
+      <c r="P16">
+        <v>0.0006273829133516105</v>
+      </c>
+      <c r="Q16">
+        <v>0.000436611546</v>
+      </c>
+      <c r="R16">
+        <v>0.003929503914000001</v>
+      </c>
+      <c r="S16">
+        <v>5.241890656270713E-07</v>
+      </c>
+      <c r="T16">
+        <v>7.35898405775025E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.028134</v>
+      </c>
+      <c r="H17">
+        <v>0.084402</v>
+      </c>
+      <c r="I17">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J17">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.876561</v>
+      </c>
+      <c r="N17">
+        <v>7.753121999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1489365219851282</v>
+      </c>
+      <c r="P17">
+        <v>0.1044778715967623</v>
+      </c>
+      <c r="Q17">
+        <v>0.109063167174</v>
+      </c>
+      <c r="R17">
+        <v>0.654379003044</v>
+      </c>
+      <c r="S17">
+        <v>0.0001309395507723658</v>
+      </c>
+      <c r="T17">
+        <v>0.0001225489210984228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>24.046532</v>
+      </c>
+      <c r="H18">
+        <v>48.093064</v>
+      </c>
+      <c r="I18">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J18">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1438866666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.43166</v>
+      </c>
+      <c r="O18">
+        <v>0.005528090411415381</v>
+      </c>
+      <c r="P18">
+        <v>0.005816871971504955</v>
+      </c>
+      <c r="Q18">
+        <v>3.459975334373334</v>
+      </c>
+      <c r="R18">
+        <v>20.75985200624</v>
+      </c>
+      <c r="S18">
+        <v>0.00415399284383073</v>
+      </c>
+      <c r="T18">
+        <v>0.003887804244471728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>24.046532</v>
+      </c>
+      <c r="H19">
+        <v>48.093064</v>
+      </c>
+      <c r="I19">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J19">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.99231</v>
+      </c>
+      <c r="N19">
+        <v>65.97693</v>
+      </c>
+      <c r="O19">
+        <v>0.8449391514331273</v>
+      </c>
+      <c r="P19">
+        <v>0.889077873518381</v>
+      </c>
+      <c r="Q19">
+        <v>528.83878616892</v>
+      </c>
+      <c r="R19">
+        <v>3173.03271701352</v>
+      </c>
+      <c r="S19">
+        <v>0.6349156629706735</v>
+      </c>
+      <c r="T19">
+        <v>0.5942301544994071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>23.7744814118673</v>
-      </c>
-      <c r="H10">
-        <v>23.7744814118673</v>
-      </c>
-      <c r="I10">
-        <v>0.7723826759861169</v>
-      </c>
-      <c r="J10">
-        <v>0.7723826759861169</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.27075438435845</v>
-      </c>
-      <c r="N10">
-        <v>3.27075438435845</v>
-      </c>
-      <c r="O10">
-        <v>0.1377744654454222</v>
-      </c>
-      <c r="P10">
-        <v>0.1377744654454222</v>
-      </c>
-      <c r="Q10">
-        <v>77.76048931371345</v>
-      </c>
-      <c r="R10">
-        <v>77.76048931371345</v>
-      </c>
-      <c r="S10">
-        <v>0.106414610303292</v>
-      </c>
-      <c r="T10">
-        <v>0.106414610303292</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>24.046532</v>
+      </c>
+      <c r="H20">
+        <v>48.093064</v>
+      </c>
+      <c r="I20">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J20">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.015519</v>
+      </c>
+      <c r="N20">
+        <v>0.046557</v>
+      </c>
+      <c r="O20">
+        <v>0.0005962361703291152</v>
+      </c>
+      <c r="P20">
+        <v>0.0006273829133516105</v>
+      </c>
+      <c r="Q20">
+        <v>0.373178130108</v>
+      </c>
+      <c r="R20">
+        <v>2.239068780648</v>
+      </c>
+      <c r="S20">
+        <v>0.0004480318881300729</v>
+      </c>
+      <c r="T20">
+        <v>0.0004193219251491226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>24.046532</v>
+      </c>
+      <c r="H21">
+        <v>48.093064</v>
+      </c>
+      <c r="I21">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J21">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.876561</v>
+      </c>
+      <c r="N21">
+        <v>7.753121999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1489365219851282</v>
+      </c>
+      <c r="P21">
+        <v>0.1044778715967623</v>
+      </c>
+      <c r="Q21">
+        <v>93.21784813645199</v>
+      </c>
+      <c r="R21">
+        <v>372.871392545808</v>
+      </c>
+      <c r="S21">
+        <v>0.1119159059399061</v>
+      </c>
+      <c r="T21">
+        <v>0.06982954320415867</v>
       </c>
     </row>
   </sheetData>
